--- a/biology/Histoire de la zoologie et de la botanique/Louis_Hippolyte_Hupé/Louis_Hippolyte_Hupé.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Louis_Hippolyte_Hupé/Louis_Hippolyte_Hupé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Louis_Hippolyte_Hup%C3%A9</t>
+          <t>Louis_Hippolyte_Hupé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Hippolyte Hupé (né le 14 mars 1819 à Paris et mort le 22 février 1867 à Paris) est un naturaliste et paléontologue français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Louis_Hippolyte_Hup%C3%A9</t>
+          <t>Louis_Hippolyte_Hupé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Hippolyte Hupé est aide-naturaliste au Muséum national d'histoire naturelle de Paris lorsqu'il succombe le 22 février 1867, après une longue maladie.
 Il est membre de la Société philomathique de Paris.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Louis_Hippolyte_Hup%C3%A9</t>
+          <t>Louis_Hippolyte_Hupé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Chevalier de la Légion d'honneur (1862)[1]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Chevalier de la Légion d'honneur (1862)</t>
         </is>
       </c>
     </row>
